--- a/Business-Cards-List.xlsx
+++ b/Business-Cards-List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734158E-25EB-48E5-B21F-6F66B5087869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3B8AB-280D-4935-AFCF-2BE50E4E1DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -86,39 +86,12 @@
     <t>snapADDY GmbH</t>
   </si>
   <si>
-    <t>Haugerkirchgasse 7</t>
-  </si>
-  <si>
-    <t>Würzburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">97070 </t>
   </si>
   <si>
-    <t>Bayern</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>https://business-card.io/c/0700b740-cee0-4d25-9374-2b0a2adf121f/</t>
-  </si>
-  <si>
-    <t>https://business-card.io/c/4d8565ad-45b1-4470-be7e-462c7eb5f598/</t>
-  </si>
-  <si>
-    <t>Todd</t>
-  </si>
-  <si>
-    <t>Chavez</t>
-  </si>
-  <si>
-    <t>https://business-card.io/c/e60acbf0-284d-4f8b-adb5-dc001c1c1a59/</t>
-  </si>
-  <si>
-    <t>info@snapaddy.com</t>
-  </si>
-  <si>
     <t>Head of Operations</t>
   </si>
   <si>
@@ -131,7 +104,58 @@
     <t>Assistant to the Regional Manager</t>
   </si>
   <si>
-    <t>CEO</t>
+    <t>https://github.com/MarcusKlapprodt</t>
+  </si>
+  <si>
+    <t>https://github.com/MarcusKlapprodt/qr-codes-businesscards</t>
+  </si>
+  <si>
+    <t>Bojack</t>
+  </si>
+  <si>
+    <t>Horseman</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Hollywoo</t>
+  </si>
+  <si>
+    <t>Dunder Mifflin</t>
+  </si>
+  <si>
+    <t>noreply@snapaddy.com</t>
+  </si>
+  <si>
+    <t>dwight@example.com</t>
+  </si>
+  <si>
+    <t>Bojack@example.com</t>
+  </si>
+  <si>
+    <t>Username 1</t>
+  </si>
+  <si>
+    <t>Username 2</t>
+  </si>
+  <si>
+    <t>Username 3</t>
+  </si>
+  <si>
+    <t>Test Street 1</t>
+  </si>
+  <si>
+    <t>Tet Street 2</t>
+  </si>
+  <si>
+    <t>Test Street 3</t>
+  </si>
+  <si>
+    <t>Wuerzburg</t>
+  </si>
+  <si>
+    <t>BY</t>
   </si>
 </sst>
 </file>
@@ -549,11 +573,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.3828125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -615,8 +642,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -631,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -640,13 +667,13 @@
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -655,104 +682,109 @@
         <v>19</v>
       </c>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4AFAA69B-5CB3-45BD-A5D7-12F328F6442B}"/>
-    <hyperlink ref="A3:A4" r:id="rId2" display="info@snapaddy.com" xr:uid="{9787057E-03EE-4AC0-A42F-E9B2584A1935}"/>
-    <hyperlink ref="J2:J3" r:id="rId3" display="info@snapaddy.com" xr:uid="{A88C01D2-D504-4D25-9800-F46BC3161E55}"/>
+    <hyperlink ref="A2" r:id="rId1" display="info@snapaddy.com" xr:uid="{4AFAA69B-5CB3-45BD-A5D7-12F328F6442B}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{F7E3D8DB-7DB5-4B38-840A-E20943951D39}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{672CF3F1-D48D-482A-911F-CD04E20E7EF6}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{947BEB67-282F-4B4D-9B39-8E18376370B2}"/>
+    <hyperlink ref="A3:A4" r:id="rId5" display="info@snapaddy.com" xr:uid="{8B68BAB8-8BF7-46E2-A062-58344AD0B1A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Business-Cards-List.xlsx
+++ b/Business-Cards-List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D3B8AB-280D-4935-AFCF-2BE50E4E1DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9910A43C-DA95-4156-BB0A-520CAFE9DCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Cards" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -74,106 +74,95 @@
     <t>Business Card URL</t>
   </si>
   <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Schrute</t>
+  </si>
+  <si>
+    <t>snapADDY GmbH</t>
+  </si>
+  <si>
+    <t>Assistant to the Regional Manager</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>info@snapaddy.com</t>
+  </si>
+  <si>
+    <t>https://www.snapaddy.com</t>
+  </si>
+  <si>
+    <t>Haugerkirchgasse 7</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97070 </t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://business-card.io/c/1f702b33-64e8-4c66-908a-f29bb600a7e0/</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Klapprodt</t>
-  </si>
-  <si>
-    <t>snapADDY GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97070 </t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Head of Operations</t>
-  </si>
-  <si>
-    <t>Dwight</t>
-  </si>
-  <si>
-    <t>Schrute</t>
-  </si>
-  <si>
-    <t>Assistant to the Regional Manager</t>
-  </si>
-  <si>
-    <t>https://github.com/MarcusKlapprodt</t>
-  </si>
-  <si>
-    <t>https://github.com/MarcusKlapprodt/qr-codes-businesscards</t>
-  </si>
-  <si>
-    <t>Bojack</t>
-  </si>
-  <si>
-    <t>Horseman</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Hollywoo</t>
-  </si>
-  <si>
-    <t>Dunder Mifflin</t>
-  </si>
-  <si>
-    <t>noreply@snapaddy.com</t>
-  </si>
-  <si>
-    <t>dwight@example.com</t>
-  </si>
-  <si>
-    <t>Bojack@example.com</t>
-  </si>
-  <si>
-    <t>Username 1</t>
-  </si>
-  <si>
-    <t>Username 2</t>
-  </si>
-  <si>
-    <t>Username 3</t>
-  </si>
-  <si>
-    <t>Test Street 1</t>
-  </si>
-  <si>
-    <t>Tet Street 2</t>
-  </si>
-  <si>
-    <t>Test Street 3</t>
-  </si>
-  <si>
-    <t>Wuerzburg</t>
-  </si>
-  <si>
-    <t>BY</t>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Beesley</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>https://business-card.io/c/4d8565ad-45b1-4470-be7e-462c7eb5f598/</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>CEO of Cabracadabra</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>https://business-card.io/c/e60acbf0-284d-4f8b-adb5-dc001c1c1a59/</t>
+  </si>
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>User 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,16 +185,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,16 +559,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="10.3828125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,150 +624,435 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="info@snapaddy.com" xr:uid="{4AFAA69B-5CB3-45BD-A5D7-12F328F6442B}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{F7E3D8DB-7DB5-4B38-840A-E20943951D39}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{672CF3F1-D48D-482A-911F-CD04E20E7EF6}"/>
-    <hyperlink ref="J4" r:id="rId4" xr:uid="{947BEB67-282F-4B4D-9B39-8E18376370B2}"/>
-    <hyperlink ref="A3:A4" r:id="rId5" display="info@snapaddy.com" xr:uid="{8B68BAB8-8BF7-46E2-A062-58344AD0B1A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100188349D678DAC24BAF537841DA942B79" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1265c883db32de67b76b8c8930ca7ee3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="22baf8e0-cfe8-475e-9635-4905d8759515" xmlns:ns3="011ff0c2-7fdf-4373-83c8-0e17bb53d8e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a9a9c2dd55be6c107bfb714b005fae7" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="22baf8e0-cfe8-475e-9635-4905d8759515"/>
+    <xsd:import namespace="011ff0c2-7fdf-4373-83c8-0e17bb53d8e0"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="22baf8e0-cfe8-475e-9635-4905d8759515" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="25" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4ec1357c-acaa-4d15-a4a9-46f4ba95dbe1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="22baf8e0-cfe8-475e-9635-4905d8759515">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="011ff0c2-7fdf-4373-83c8-0e17bb53d8e0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="24" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="55d7b6b7-08eb-4117-8c55-fcdc3b86b943" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="27" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C6A81E-A3B6-4920-8A9A-9817AD43524D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9934B344-C8BC-4629-BAAD-2DCC808B65AF}"/>
 </file>